--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1682804.15256953</v>
+        <v>1675793.423453536</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791248</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>196.2252157411664</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>35.3808207076243</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>141.4910205044399</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>70.90536896242791</v>
       </c>
     </row>
     <row r="4">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>68.73032489577405</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>110.0638926378908</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>97.09961664562101</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>105.4466850927482</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>116.166381289685</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>83.48565392303456</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1032,7 +1032,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>84.14995152997707</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>215.3172165167655</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>112.4146879222726</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>148.7215926966186</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1193,7 +1193,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>87.95308749070819</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>176.1585305451349</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>11.00866170548329</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>56.9013384713208</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>91.35442079817263</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>189.1733040591474</v>
+        <v>172.3495380358464</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,22 +1765,22 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>21.51540584437777</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>57.01272611172351</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697362</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927754</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059311</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414329</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404341</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954308</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007174</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035414</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219387</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507298</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484025</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723238</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380443</v>
+        <v>59.93249105380335</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497636</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943227</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972079</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1010.433091127361</v>
+        <v>1068.31085020885</v>
       </c>
       <c r="C2" t="n">
-        <v>1010.433091127361</v>
+        <v>1068.31085020885</v>
       </c>
       <c r="D2" t="n">
-        <v>1010.433091127361</v>
+        <v>1068.31085020885</v>
       </c>
       <c r="E2" t="n">
-        <v>607.8495662439052</v>
+        <v>665.7273253253943</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>652.8732908957761</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>239.7105353837792</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>1048.426217084556</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1562.028895694245</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>2002.068496586573</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238215</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238215</v>
+        <v>1781.416694537044</v>
       </c>
       <c r="V2" t="n">
-        <v>1442.662002941734</v>
+        <v>1439.309885240562</v>
       </c>
       <c r="W2" t="n">
-        <v>1442.662002941734</v>
+        <v>1068.31085020885</v>
       </c>
       <c r="X2" t="n">
-        <v>1406.92380020676</v>
+        <v>1068.31085020885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1010.433091127361</v>
+        <v>1068.31085020885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>835.1276348266356</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284337</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475496</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569814</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365387</v>
+        <v>1151.786993484068</v>
       </c>
       <c r="N3" t="n">
-        <v>1923.31846137548</v>
+        <v>1665.389672093756</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737748</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1706.251474293498</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1483.711472664565</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1253.594226797852</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675969</v>
+        <v>1064.287149147864</v>
       </c>
       <c r="Y3" t="n">
-        <v>986.9239692675969</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>443.2442849253657</v>
+        <v>436.507806045712</v>
       </c>
       <c r="C4" t="n">
-        <v>443.2442849253657</v>
+        <v>436.507806045712</v>
       </c>
       <c r="D4" t="n">
-        <v>443.2442849253657</v>
+        <v>436.507806045712</v>
       </c>
       <c r="E4" t="n">
-        <v>443.2442849253657</v>
+        <v>367.08323544392</v>
       </c>
       <c r="F4" t="n">
-        <v>443.2442849253657</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>443.2442849253657</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>443.2442849253657</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X4" t="n">
-        <v>443.2442849253657</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="Y4" t="n">
-        <v>443.2442849253657</v>
+        <v>436.507806045712</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.466196524307</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="C5" t="n">
-        <v>993.2906950272375</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="D5" t="n">
-        <v>607.8495662439052</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E5" t="n">
-        <v>607.8495662439052</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>50.62559822793124</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.706865059666</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2038.709635169107</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>2038.709635169107</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U5" t="n">
-        <v>1782.956905603706</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="V5" t="n">
-        <v>1782.956905603706</v>
+        <v>1733.055528520442</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.956905603706</v>
+        <v>1362.056493488729</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.956905603706</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.466196524307</v>
+        <v>1255.544690364741</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706.4151516456736</v>
+        <v>778.7327876102513</v>
       </c>
       <c r="C6" t="n">
-        <v>555.7609212057658</v>
+        <v>628.0785571703435</v>
       </c>
       <c r="D6" t="n">
-        <v>425.6719538272462</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284337</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>176.1237484101841</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>176.1237484101841</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>714.3825334202767</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430369</v>
+        <v>1985.128818155983</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.16160102135</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2066.536983279212</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1889.55317147812</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1679.490028156762</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1456.950026527829</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="W6" t="n">
-        <v>1226.832780661116</v>
+        <v>1299.150416625694</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.525703011128</v>
+        <v>1109.843338975705</v>
       </c>
       <c r="Y6" t="n">
-        <v>858.211486086635</v>
+        <v>930.5291220512127</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.6344602231339</v>
+        <v>583.330228098702</v>
       </c>
       <c r="C7" t="n">
-        <v>524.6344602231339</v>
+        <v>583.330228098702</v>
       </c>
       <c r="D7" t="n">
-        <v>524.6344602231339</v>
+        <v>583.330228098702</v>
       </c>
       <c r="E7" t="n">
-        <v>369.0756480823364</v>
+        <v>583.330228098702</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>498.3302770583211</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475496</v>
+        <v>330.0762231577667</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475496</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>583.330228098702</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>583.330228098702</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1265981188567</v>
+        <v>583.330228098702</v>
       </c>
       <c r="X7" t="n">
-        <v>524.6344602231339</v>
+        <v>583.330228098702</v>
       </c>
       <c r="Y7" t="n">
-        <v>524.6344602231339</v>
+        <v>583.330228098702</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2215.424674070495</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>1991.924071629911</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1736.17134206451</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1394.064532768029</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1394.064532768029</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1004.611927701086</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>608.1212186216866</v>
+        <v>182.839545823232</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>443.7671209181044</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924707</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544166</v>
+        <v>859.9184901272292</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1286.72012241885</v>
+        <v>1459.556716529489</v>
       </c>
       <c r="C11" t="n">
-        <v>965.340896067974</v>
+        <v>1459.556716529489</v>
       </c>
       <c r="D11" t="n">
-        <v>651.6960424308359</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>651.6960424308359</v>
+        <v>815.1246131550884</v>
       </c>
       <c r="F11" t="n">
-        <v>306.5978791070074</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>306.5978791070074</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5072,19 +5072,19 @@
         <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873814</v>
+        <v>3000.119244984452</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723526</v>
+        <v>2729.808710834164</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838007</v>
+        <v>2430.605950948646</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917258</v>
+        <v>2112.949621027897</v>
       </c>
       <c r="Y11" t="n">
-        <v>1615.418592984053</v>
+        <v>1788.255187094692</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.8495292029534</v>
+        <v>327.8691030939131</v>
       </c>
       <c r="C13" t="n">
-        <v>472.8495292029534</v>
+        <v>327.8691030939131</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029534</v>
+        <v>327.8691030939131</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>244.1065660993093</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,10 +5200,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245443</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915625</v>
+        <v>793.9644698127915</v>
       </c>
       <c r="W13" t="n">
-        <v>530.325628668934</v>
+        <v>582.430342890163</v>
       </c>
       <c r="X13" t="n">
-        <v>472.8495292029534</v>
+        <v>420.14629581934</v>
       </c>
       <c r="Y13" t="n">
-        <v>472.8495292029534</v>
+        <v>327.8691030939131</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1398.198638179665</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>748.5837713937468</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5312,16 +5312,16 @@
         <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2668.450632484341</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="W14" t="n">
-        <v>2369.247872598823</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.591542678073</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>1726.897108744868</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>349.6018362700519</v>
+        <v>398.2566373726693</v>
       </c>
       <c r="C16" t="n">
-        <v>327.8691030939128</v>
+        <v>299.8477945848524</v>
       </c>
       <c r="D16" t="n">
-        <v>327.8691030939128</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993092</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457737</v>
+        <v>1230.985410981373</v>
       </c>
       <c r="V16" t="n">
-        <v>988.1475398457737</v>
+        <v>1036.802340948391</v>
       </c>
       <c r="W16" t="n">
-        <v>776.6134129231452</v>
+        <v>825.2682140257625</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3293658523221</v>
+        <v>662.9841669549395</v>
       </c>
       <c r="Y16" t="n">
-        <v>463.0135798151593</v>
+        <v>511.6683809177767</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975438</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5607,10 +5607,10 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5762,7 +5762,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5789,10 +5789,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5902,31 +5902,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6072,19 +6072,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.744905612751</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
-        <v>1778.52287682331</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2295.043159414291</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2295.043159414291</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>2243.686201918056</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>2205.157820666454</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>2181.201444251377</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>2157.319368792988</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>2131.670170688369</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>2071.291039114125</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433612</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433612</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2157.288034151738</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750523</v>
+        <v>2321.415674025537</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>2507.707252363801</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>2819.953256017439</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>3102.534188835726</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070735</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>2777.012667845687</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>2297.217483926949</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>755.8323718938493</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1249.152663612378</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386532</v>
+        <v>1888.204925386533</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753567</v>
+        <v>2509.067570753568</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>3042.15853337547</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3390.346025506992</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6257,19 +6257,19 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6361,73 +6361,73 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6443,67 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678972</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134136</v>
+        <v>662.7810101642764</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1249.152663612379</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1888.204925386533</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2509.067570753568</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377455</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.58288023855</v>
+        <v>3390.346025506992</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6555,7 +6555,7 @@
         <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>2273.334693965057</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
         <v>2391.700393923186</v>
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985346</v>
+        <v>504.3300981985343</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517117</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414153</v>
+        <v>368.373229741415</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878062</v>
+        <v>307.7550988878057</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879676</v>
+        <v>245.3698453879668</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746006</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286455</v>
+        <v>861.9084564286444</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498817</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
         <v>594.5974356026475</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108114</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136178</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419141</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038539</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170061</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>2269.517383258269</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076207</v>
+        <v>395.396194563632</v>
       </c>
       <c r="M34" t="n">
-        <v>806.374667072955</v>
+        <v>687.4874315041461</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831235</v>
+        <v>982.329186110338</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1256.686073727029</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1376.562239503607</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,10 +6959,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7020,19 +7020,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>2262.088962721623</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7087,34 +7087,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7257,19 +7257,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N39" t="n">
-        <v>2262.088962721623</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7503,10 +7503,10 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7567,13 +7567,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M43" t="n">
         <v>629.0093992567336</v>
@@ -7634,13 +7634,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,10 +7682,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7743,7 +7743,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390484</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184705</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567345</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>312.0096393411935</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>224.1336100998649</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837488</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886036</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O3" t="n">
-        <v>346.6921127901699</v>
+        <v>96.8807881886565</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
-        <v>564.9482258454432</v>
+        <v>305.272005197043</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>109.3071442178806</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837488</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886036</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413543</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>301.1357168357237</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>167.5502506491751</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826963</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,13 +9477,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9492,10 +9492,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9720,10 +9720,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>400.7288157213065</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,10 +9732,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.2623988786017</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -10203,10 +10203,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10440,7 +10440,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>212.2488719779076</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
@@ -10668,22 +10668,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>576.0417294606771</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,7 +10905,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10914,13 +10914,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>177.2623988786017</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11151,13 +11151,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11391,10 +11391,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.60537698930739</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.1082281695321</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>103.759868128794</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>58.44820737861853</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>78.43412474963748</v>
+        <v>95.2578907729385</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>75.90934851556096</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>25.98574346005496</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717115.6054098023</v>
+        <v>717115.6054098021</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>811494.8014201053</v>
+        <v>811494.801420105</v>
       </c>
     </row>
     <row r="8">
@@ -26314,13 +26314,13 @@
         <v>450830.445233392</v>
       </c>
       <c r="C2" t="n">
-        <v>450830.4452333918</v>
+        <v>450830.4452333921</v>
       </c>
       <c r="D2" t="n">
-        <v>450830.4452333919</v>
+        <v>450830.445233392</v>
       </c>
       <c r="E2" t="n">
-        <v>398397.558561002</v>
+        <v>398397.5585610019</v>
       </c>
       <c r="F2" t="n">
         <v>398397.5585610018</v>
@@ -26329,25 +26329,25 @@
         <v>450830.4452333922</v>
       </c>
       <c r="H2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.4452333922</v>
       </c>
       <c r="I2" t="n">
-        <v>450830.4452333923</v>
+        <v>450830.4452333922</v>
       </c>
       <c r="J2" t="n">
         <v>450830.4452333915</v>
       </c>
       <c r="K2" t="n">
-        <v>450830.4452333914</v>
+        <v>450830.4452333917</v>
       </c>
       <c r="L2" t="n">
-        <v>450830.445233392</v>
+        <v>450830.4452333924</v>
       </c>
       <c r="M2" t="n">
         <v>450830.4452333922</v>
       </c>
       <c r="N2" t="n">
-        <v>450830.4452333922</v>
+        <v>450830.4452333923</v>
       </c>
       <c r="O2" t="n">
         <v>450830.4452333922</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062197</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.2417753967</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26436,28 +26436,28 @@
         <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
       </c>
       <c r="K4" t="n">
-        <v>122593.9044797029</v>
+        <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,22 +26485,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551967</v>
-      </c>
-      <c r="I5" t="n">
-        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34735.09257721197</v>
+        <v>37883.44316398611</v>
       </c>
       <c r="C6" t="n">
-        <v>216940.0408690676</v>
+        <v>211742.1001980413</v>
       </c>
       <c r="D6" t="n">
-        <v>212076.7585751924</v>
+        <v>204340.4693518011</v>
       </c>
       <c r="E6" t="n">
-        <v>159004.4818633794</v>
+        <v>158794.7503166899</v>
       </c>
       <c r="F6" t="n">
-        <v>271127.0433374239</v>
+        <v>270917.3117907342</v>
       </c>
       <c r="G6" t="n">
         <v>223391.9383658709</v>
       </c>
       <c r="H6" t="n">
-        <v>270817.2639025527</v>
+        <v>270817.2639025528</v>
       </c>
       <c r="I6" t="n">
         <v>270817.2639025529</v>
       </c>
       <c r="J6" t="n">
-        <v>57775.34630526665</v>
+        <v>64291.63145983974</v>
       </c>
       <c r="K6" t="n">
-        <v>264577.495499769</v>
+        <v>264577.4954997695</v>
       </c>
       <c r="L6" t="n">
-        <v>209394.9065651486</v>
+        <v>205346.0693546768</v>
       </c>
       <c r="M6" t="n">
-        <v>228616.4344429299</v>
+        <v>227564.7394317418</v>
       </c>
       <c r="N6" t="n">
-        <v>270817.2639025529</v>
+        <v>270817.263902553</v>
       </c>
       <c r="O6" t="n">
-        <v>243049.5698597816</v>
+        <v>243049.5698597817</v>
       </c>
       <c r="P6" t="n">
         <v>270817.2639025529</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="I4" t="n">
         <v>776.4890963014442</v>
       </c>
-      <c r="I4" t="n">
-        <v>776.4890963014441</v>
-      </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660693</v>
+        <v>78.07030221924587</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551336</v>
+        <v>17.58004954287453</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.3622249971651</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.126871304279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>124.6170041880079</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>350.1772583086494</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7.656667631068814</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>106.6157057928199</v>
       </c>
     </row>
     <row r="4">
@@ -27543,19 +27543,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>85.27289912361546</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>56.50762072365814</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>67.74880286273893</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>280.1113939235255</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12.62169641504941</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>50.09571640609528</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>71.6027239091797</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>16.42230247808121</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>284.0751103320103</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>16.12682681174132</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>192.544010557426</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,16 +28992,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29220,16 +29220,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L25" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>86.65052755599578</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>86.65052755599675</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431653</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>86.65052755599612</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901169</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431653</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>48.65992738833086</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>81.10808140893522</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861253983</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224748</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,16 +30165,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,16 +30402,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>28.01250026485243</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,16 +30639,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>35.71049010668816</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
-        <v>35.71049010668918</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -31768,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N2" t="n">
-        <v>162.8911480034095</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>73.83216285893974</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N3" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O3" t="n">
-        <v>254.004553901281</v>
+        <v>4.193229299767613</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
-        <v>415.3843884213467</v>
+        <v>155.7081677729466</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>19.71020888454726</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246545</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>152.0172254979396</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>77.48990379225687</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,16 +36054,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36212,10 +36212,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,16 +36288,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816469</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,10 +36452,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>86.27424572268772</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L25" t="n">
-        <v>294.0834769302979</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>449.2589679877754</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>638.1665882070882</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>449.2589679877757</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192277</v>
+        <v>627.1339852192275</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004798</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>445.6958119809041</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698325</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215746</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446901</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>581.802638133242</v>
+        <v>645.922630517621</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.49509683160194</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>119.5613130890187</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>82.70543230055077</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345598</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>295.0416534752667</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37388,22 +37388,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>210.9596397950879</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37634,13 +37634,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>149.0995364028106</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>119.5613130890187</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>223.8838015594801</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
-        <v>201.4959849287092</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
